--- a/ig/StructureDefinition-esms-consent.xlsx
+++ b/ig/StructureDefinition-esms-consent.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-18T09:52:02+00:00</t>
+    <t>2024-04-30T08:40:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-esms-consent.xlsx
+++ b/ig/StructureDefinition-esms-consent.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.2-ballot-3</t>
+    <t>4.0.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -45,7 +45,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T08:40:24+00:00</t>
+    <t>2024-11-22T13:34:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil pour la définition de l'accord</t>
+    <t>Profil ESMS créé dans le contexte du suivi des orientations pour transporter la définition de l’accord.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -430,7 +430,7 @@
     <t>Identifiant de l’ESMS créant la ressource (=idNat_Struct). Il s’agit de la structure bénéficiant de l’accord.</t>
   </si>
   <si>
-    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
   </si>
   <si>
     <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
@@ -450,7 +450,7 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>

--- a/ig/StructureDefinition-esms-consent.xlsx
+++ b/ig/StructureDefinition-esms-consent.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2917" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2905" uniqueCount="475">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.2</t>
+    <t>4.0.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-22T13:34:24+00:00</t>
+    <t>2025-01-30T16:13:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -266,7 +266,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}ppc-4:IF Scope=adr, there must be a patient {patient.exists() or scope.coding.where(system='something' and code='adr').exists().not()}ppc-5:IF Scope=treatment, there must be a patient {patient.exists() or scope.coding.where(system='something' and code='treatment').exists().not()}ppc-2:IF Scope=privacy, there must be a patient {patient.exists() or scope.coding.where(system='something' and code='patient-privacy').exists().not()}ppc-3:IF Scope=research, there must be a patient {patient.exists() or scope.coding.where(system='something' and code='research').exists().not()}ppc-1:Either a Policy or PolicyRule {policy.exists() or policyRule.exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}ppc-1:Either a Policy or PolicyRule {policy.exists() or policyRule.exists()}ppc-2:IF Scope=privacy, there must be a patient {patient.exists() or scope.coding.where(system='something' and code='patient-privacy').exists().not()}ppc-3:IF Scope=research, there must be a patient {patient.exists() or scope.coding.where(system='something' and code='research').exists().not()}ppc-4:IF Scope=adr, there must be a patient {patient.exists() or scope.coding.where(system='something' and code='adr').exists().not()}ppc-5:IF Scope=treatment, there must be a patient {patient.exists() or scope.coding.where(system='something' and code='treatment').exists().not()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -319,17 +319,10 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Consent.meta.id</t>
   </si>
   <si>
@@ -487,12 +480,6 @@
     <t>Meta.security</t>
   </si>
   <si>
-    <t>CE/CNE/CWE subset one of the sets of component 1-3 or 4-6</t>
-  </si>
-  <si>
-    <t>CV</t>
-  </si>
-  <si>
     <t>Consent.meta.tag</t>
   </si>
   <si>
@@ -607,6 +594,9 @@
   </si>
   <si>
     <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
   <si>
     <t>Consent.extension</t>
@@ -659,9 +649,6 @@
     <t>Event.identifier</t>
   </si>
   <si>
-    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
-  </si>
-  <si>
     <t>.id</t>
   </si>
   <si>
@@ -715,9 +702,6 @@
   </si>
   <si>
     <t>A selector of the type of consent being presented: ADR, Privacy, Treatment, Research.  This list is now extensible.</t>
-  </si>
-  <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -734,12 +718,6 @@
     <t>http://hl7.org/fhir/ValueSet/consent-scope</t>
   </si>
   <si>
-    <t>CE/CNE/CWE</t>
-  </si>
-  <si>
-    <t>CD</t>
-  </si>
-  <si>
     <t>Consent.category</t>
   </si>
   <si>
@@ -791,10 +769,6 @@
     <t>Commonly, the patient the consent pertains to is the author, but for young and old people, it may be some other person.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
-  </si>
-  <si>
     <t>Event.subject</t>
   </si>
   <si>
@@ -858,9 +832,6 @@
     <t>Field 24/ ConsenterID</t>
   </si>
   <si>
-    <t>The target of a resource reference is a RIM entry point (Act, Role, or Entity)</t>
-  </si>
-  <si>
     <t>FiveWs.actor</t>
   </si>
   <si>
@@ -881,9 +852,6 @@
     <t>The organization that manages the consent, and the framework within which it is executed.</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
-  </si>
-  <si>
     <t>FiveWs.witness</t>
   </si>
   <si>
@@ -951,11 +919,8 @@
     <t>Entity or Organization having regulatory jurisdiction or accountability for  enforcing policies pertaining to Consent Directives.</t>
   </si>
   <si>
-    <t>see http://en.wikipedia.org/wiki/Uniform_resource_identifier</t>
-  </si>
-  <si>
-    <t>ele-1
-ppc-1</t>
+    <t xml:space="preserve">ppc-1
+</t>
   </si>
   <si>
     <t>Consent.policy.uri</t>
@@ -1068,9 +1033,6 @@
     <t>Action  to take - permit or deny - when the rule conditions are met.  Not permitted in root rule, required in all nested rules.</t>
   </si>
   <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
-  </si>
-  <si>
     <t>How a rule statement is applied, such as adding additional consent or removing consent.</t>
   </si>
   <si>
@@ -1090,20 +1052,6 @@
     <t>The timeframe in this rule is valid.</t>
   </si>
   <si>
-    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
-  </si>
-  <si>
-    <t>DR</t>
-  </si>
-  <si>
-    <t>IVL&lt;TS&gt;[lowClosed="true" and highClosed="true"] or URG&lt;TS&gt;[lowClosed="true" and highClosed="true"]</t>
-  </si>
-  <si>
     <t>Consent.provision.actor</t>
   </si>
   <si>
@@ -1325,8 +1273,8 @@
     <t>Reference.reference</t>
   </si>
   <si>
-    <t>ele-1
-ref-1</t>
+    <t xml:space="preserve">ref-1
+</t>
   </si>
   <si>
     <t>Consent.provision.data.reference.type</t>
@@ -1894,7 +1842,7 @@
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="62.87890625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="46.4453125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="102.6171875" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
@@ -2343,11 +2291,11 @@
         <v>88</v>
       </c>
       <c r="AI4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ4" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK4" t="s" s="2">
         <v>76</v>
       </c>
@@ -2355,7 +2303,7 @@
         <v>76</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="AN4" t="s" s="2">
         <v>76</v>
@@ -2363,10 +2311,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2389,13 +2337,13 @@
         <v>76</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -2446,7 +2394,7 @@
         <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>77</v>
@@ -2467,7 +2415,7 @@
         <v>76</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AN5" t="s" s="2">
         <v>76</v>
@@ -2475,14 +2423,14 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -2501,16 +2449,16 @@
         <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2548,19 +2496,19 @@
         <v>76</v>
       </c>
       <c r="AB6" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AC6" t="s" s="2">
+      <c r="AF6" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>77</v>
@@ -2569,10 +2517,10 @@
         <v>78</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>76</v>
@@ -2581,7 +2529,7 @@
         <v>76</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="AN6" t="s" s="2">
         <v>76</v>
@@ -2589,10 +2537,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2618,13 +2566,13 @@
         <v>90</v>
       </c>
       <c r="L7" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N7" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2674,7 +2622,7 @@
         <v>76</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>77</v>
@@ -2683,11 +2631,11 @@
         <v>88</v>
       </c>
       <c r="AI7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ7" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK7" t="s" s="2">
         <v>76</v>
       </c>
@@ -2695,7 +2643,7 @@
         <v>76</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>76</v>
@@ -2703,10 +2651,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2729,16 +2677,16 @@
         <v>89</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M8" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2788,7 +2736,7 @@
         <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>77</v>
@@ -2797,11 +2745,11 @@
         <v>88</v>
       </c>
       <c r="AI8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ8" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK8" t="s" s="2">
         <v>76</v>
       </c>
@@ -2809,7 +2757,7 @@
         <v>76</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>76</v>
@@ -2817,10 +2765,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2843,16 +2791,16 @@
         <v>89</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2902,7 +2850,7 @@
         <v>76</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
@@ -2911,11 +2859,11 @@
         <v>88</v>
       </c>
       <c r="AI9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ9" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK9" t="s" s="2">
         <v>76</v>
       </c>
@@ -2923,7 +2871,7 @@
         <v>76</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>76</v>
@@ -2931,10 +2879,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2957,16 +2905,16 @@
         <v>89</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="N10" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -3016,7 +2964,7 @@
         <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
@@ -3025,11 +2973,11 @@
         <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ10" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK10" t="s" s="2">
         <v>76</v>
       </c>
@@ -3037,7 +2985,7 @@
         <v>76</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>76</v>
@@ -3045,10 +2993,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3071,16 +3019,16 @@
         <v>89</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3106,31 +3054,31 @@
         <v>76</v>
       </c>
       <c r="X11" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="Z11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="AA11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF11" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -3139,19 +3087,19 @@
         <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ11" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>153</v>
+        <v>76</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>76</v>
@@ -3159,10 +3107,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3185,16 +3133,16 @@
         <v>89</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3220,13 +3168,13 @@
         <v>76</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>76</v>
@@ -3244,7 +3192,7 @@
         <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -3253,19 +3201,19 @@
         <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ12" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>153</v>
+        <v>76</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>76</v>
@@ -3273,10 +3221,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3299,16 +3247,16 @@
         <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3358,7 +3306,7 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -3367,11 +3315,11 @@
         <v>88</v>
       </c>
       <c r="AI13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ13" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK13" t="s" s="2">
         <v>76</v>
       </c>
@@ -3379,7 +3327,7 @@
         <v>76</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>76</v>
@@ -3387,10 +3335,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3413,16 +3361,16 @@
         <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3448,13 +3396,13 @@
         <v>76</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>76</v>
@@ -3472,7 +3420,7 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -3481,11 +3429,11 @@
         <v>88</v>
       </c>
       <c r="AI14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ14" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK14" t="s" s="2">
         <v>76</v>
       </c>
@@ -3493,7 +3441,7 @@
         <v>76</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>76</v>
@@ -3501,14 +3449,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3527,16 +3475,16 @@
         <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3586,7 +3534,7 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -3595,11 +3543,11 @@
         <v>88</v>
       </c>
       <c r="AI15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ15" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK15" t="s" s="2">
         <v>76</v>
       </c>
@@ -3607,7 +3555,7 @@
         <v>76</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>76</v>
@@ -3615,14 +3563,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3641,16 +3589,16 @@
         <v>76</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3700,7 +3648,7 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3721,7 +3669,7 @@
         <v>76</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>102</v>
+        <v>187</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>76</v>
@@ -3729,14 +3677,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3755,16 +3703,16 @@
         <v>76</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="N17" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3802,19 +3750,19 @@
         <v>76</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3823,10 +3771,10 @@
         <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>76</v>
@@ -3835,7 +3783,7 @@
         <v>76</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>102</v>
+        <v>187</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>76</v>
@@ -3843,14 +3791,14 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3869,19 +3817,19 @@
         <v>76</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>76</v>
@@ -3918,19 +3866,19 @@
         <v>76</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -3939,10 +3887,10 @@
         <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>76</v>
@@ -3951,7 +3899,7 @@
         <v>76</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>102</v>
+        <v>187</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>76</v>
@@ -3959,10 +3907,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3985,16 +3933,16 @@
         <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="N19" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4008,7 +3956,7 @@
         <v>76</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="U19" t="s" s="2">
         <v>76</v>
@@ -4044,7 +3992,7 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -4053,30 +4001,30 @@
         <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ19" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK19" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>206</v>
+        <v>76</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4099,19 +4047,19 @@
         <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>76</v>
@@ -4121,7 +4069,7 @@
         <v>76</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>76</v>
@@ -4136,63 +4084,63 @@
         <v>76</v>
       </c>
       <c r="X20" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="Y20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="Z20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>220</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4215,17 +4163,15 @@
         <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>76</v>
@@ -4235,7 +4181,7 @@
         <v>76</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="T21" t="s" s="2">
         <v>76</v>
@@ -4250,13 +4196,13 @@
         <v>76</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>76</v>
@@ -4274,7 +4220,7 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>88</v>
@@ -4283,19 +4229,19 @@
         <v>88</v>
       </c>
       <c r="AI21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ21" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>229</v>
+        <v>76</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>230</v>
+        <v>76</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>76</v>
@@ -4303,10 +4249,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4329,17 +4275,15 @@
         <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>76</v>
@@ -4349,7 +4293,7 @@
         <v>76</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>76</v>
@@ -4364,13 +4308,13 @@
         <v>76</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>76</v>
@@ -4388,7 +4332,7 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>88</v>
@@ -4397,30 +4341,30 @@
         <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ22" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK22" t="s" s="2">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4443,16 +4387,16 @@
         <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4502,39 +4446,39 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>249</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4557,16 +4501,16 @@
         <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4616,43 +4560,43 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>258</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4671,16 +4615,16 @@
         <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4730,7 +4674,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4739,34 +4683,34 @@
         <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ25" t="s" s="2">
-        <v>246</v>
-      </c>
       <c r="AK25" t="s" s="2">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>267</v>
+        <v>76</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4785,17 +4729,15 @@
         <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>76</v>
@@ -4844,7 +4786,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4853,30 +4795,30 @@
         <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ26" t="s" s="2">
-        <v>246</v>
-      </c>
       <c r="AK26" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>275</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4899,16 +4841,16 @@
         <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4958,7 +4900,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4967,19 +4909,19 @@
         <v>88</v>
       </c>
       <c r="AI27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ27" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>76</v>
@@ -4987,10 +4929,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5013,13 +4955,13 @@
         <v>76</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5070,7 +5012,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -5079,11 +5021,11 @@
         <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ28" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK28" t="s" s="2">
         <v>76</v>
       </c>
@@ -5091,7 +5033,7 @@
         <v>76</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>76</v>
@@ -5099,10 +5041,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5125,13 +5067,13 @@
         <v>76</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5182,7 +5124,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -5203,7 +5145,7 @@
         <v>76</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>76</v>
@@ -5211,14 +5153,14 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5237,16 +5179,16 @@
         <v>76</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5284,19 +5226,19 @@
         <v>76</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="AC30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF30" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -5305,10 +5247,10 @@
         <v>78</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>76</v>
@@ -5317,7 +5259,7 @@
         <v>76</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>76</v>
@@ -5325,14 +5267,14 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5351,19 +5293,19 @@
         <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>76</v>
@@ -5412,7 +5354,7 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5421,10 +5363,10 @@
         <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>76</v>
@@ -5433,7 +5375,7 @@
         <v>76</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>102</v>
+        <v>187</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>76</v>
@@ -5441,10 +5383,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5467,17 +5409,15 @@
         <v>76</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>296</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>76</v>
@@ -5526,7 +5466,7 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5535,10 +5475,10 @@
         <v>88</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>76</v>
@@ -5547,7 +5487,7 @@
         <v>76</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>76</v>
@@ -5555,10 +5495,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5581,16 +5521,16 @@
         <v>76</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5640,7 +5580,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5649,10 +5589,10 @@
         <v>88</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>76</v>
@@ -5661,7 +5601,7 @@
         <v>76</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>76</v>
@@ -5669,10 +5609,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5695,19 +5635,19 @@
         <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>76</v>
@@ -5732,13 +5672,13 @@
         <v>76</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>76</v>
@@ -5756,7 +5696,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5765,19 +5705,19 @@
         <v>88</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>229</v>
+        <v>76</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>230</v>
+        <v>76</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>76</v>
@@ -5785,10 +5725,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5811,13 +5751,13 @@
         <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5868,7 +5808,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5877,11 +5817,11 @@
         <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ35" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK35" t="s" s="2">
         <v>76</v>
       </c>
@@ -5889,7 +5829,7 @@
         <v>76</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>76</v>
@@ -5897,10 +5837,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5923,13 +5863,13 @@
         <v>76</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5980,7 +5920,7 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -6001,7 +5941,7 @@
         <v>76</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>76</v>
@@ -6009,14 +5949,14 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6035,16 +5975,16 @@
         <v>76</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6082,19 +6022,19 @@
         <v>76</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="AC37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF37" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -6103,10 +6043,10 @@
         <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>76</v>
@@ -6115,7 +6055,7 @@
         <v>76</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>76</v>
@@ -6123,14 +6063,14 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6149,19 +6089,19 @@
         <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>76</v>
@@ -6210,7 +6150,7 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -6219,10 +6159,10 @@
         <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>76</v>
@@ -6231,7 +6171,7 @@
         <v>76</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>102</v>
+        <v>187</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>76</v>
@@ -6239,10 +6179,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6265,13 +6205,13 @@
         <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6322,7 +6262,7 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>88</v>
@@ -6331,11 +6271,11 @@
         <v>88</v>
       </c>
       <c r="AI39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ39" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK39" t="s" s="2">
         <v>76</v>
       </c>
@@ -6343,7 +6283,7 @@
         <v>76</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>76</v>
@@ -6351,10 +6291,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6377,17 +6317,15 @@
         <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>76</v>
@@ -6436,7 +6374,7 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -6445,11 +6383,11 @@
         <v>88</v>
       </c>
       <c r="AI40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ40" t="s" s="2">
-        <v>246</v>
-      </c>
       <c r="AK40" t="s" s="2">
         <v>76</v>
       </c>
@@ -6457,7 +6395,7 @@
         <v>76</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>267</v>
+        <v>76</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>76</v>
@@ -6465,10 +6403,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6491,13 +6429,13 @@
         <v>76</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6548,7 +6486,7 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6557,11 +6495,11 @@
         <v>88</v>
       </c>
       <c r="AI41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ41" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK41" t="s" s="2">
         <v>76</v>
       </c>
@@ -6569,7 +6507,7 @@
         <v>76</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>76</v>
@@ -6577,10 +6515,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6603,13 +6541,13 @@
         <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6660,7 +6598,7 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6669,11 +6607,11 @@
         <v>88</v>
       </c>
       <c r="AI42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ42" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK42" t="s" s="2">
         <v>76</v>
       </c>
@@ -6681,7 +6619,7 @@
         <v>76</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>76</v>
@@ -6689,10 +6627,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6715,13 +6653,13 @@
         <v>76</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6772,7 +6710,7 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6793,7 +6731,7 @@
         <v>76</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>76</v>
@@ -6801,14 +6739,14 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6827,16 +6765,16 @@
         <v>76</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6874,19 +6812,19 @@
         <v>76</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="AC44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF44" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6895,10 +6833,10 @@
         <v>78</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>76</v>
@@ -6907,7 +6845,7 @@
         <v>76</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>76</v>
@@ -6915,14 +6853,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6941,19 +6879,19 @@
         <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>76</v>
@@ -7002,7 +6940,7 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -7011,10 +6949,10 @@
         <v>78</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>76</v>
@@ -7023,7 +6961,7 @@
         <v>76</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>102</v>
+        <v>187</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>76</v>
@@ -7031,10 +6969,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7057,17 +6995,15 @@
         <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>334</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>76</v>
@@ -7092,13 +7028,13 @@
         <v>76</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>76</v>
@@ -7116,7 +7052,7 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -7125,11 +7061,11 @@
         <v>88</v>
       </c>
       <c r="AI46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ46" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK46" t="s" s="2">
         <v>76</v>
       </c>
@@ -7137,7 +7073,7 @@
         <v>76</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>76</v>
@@ -7145,10 +7081,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7171,17 +7107,15 @@
         <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>76</v>
@@ -7230,7 +7164,7 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -7239,19 +7173,19 @@
         <v>88</v>
       </c>
       <c r="AI47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ47" t="s" s="2">
-        <v>342</v>
-      </c>
       <c r="AK47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>343</v>
+        <v>76</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>344</v>
+        <v>76</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>76</v>
@@ -7259,10 +7193,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7285,13 +7219,13 @@
         <v>76</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7299,7 +7233,7 @@
         <v>76</v>
       </c>
       <c r="Q48" t="s" s="2">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>76</v>
@@ -7344,7 +7278,7 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -7353,11 +7287,11 @@
         <v>78</v>
       </c>
       <c r="AI48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ48" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK48" t="s" s="2">
         <v>76</v>
       </c>
@@ -7365,7 +7299,7 @@
         <v>76</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>76</v>
@@ -7373,10 +7307,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7399,13 +7333,13 @@
         <v>76</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7456,7 +7390,7 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7477,7 +7411,7 @@
         <v>76</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>76</v>
@@ -7485,14 +7419,14 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7511,16 +7445,16 @@
         <v>76</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7558,19 +7492,19 @@
         <v>76</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="AC50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF50" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7579,10 +7513,10 @@
         <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>76</v>
@@ -7591,7 +7525,7 @@
         <v>76</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>76</v>
@@ -7599,14 +7533,14 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7625,19 +7559,19 @@
         <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>76</v>
@@ -7686,7 +7620,7 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7695,10 +7629,10 @@
         <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>76</v>
@@ -7707,7 +7641,7 @@
         <v>76</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>102</v>
+        <v>187</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>76</v>
@@ -7715,10 +7649,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7741,17 +7675,15 @@
         <v>76</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>76</v>
@@ -7776,13 +7708,13 @@
         <v>76</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>76</v>
@@ -7800,7 +7732,7 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>88</v>
@@ -7809,19 +7741,19 @@
         <v>88</v>
       </c>
       <c r="AI52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ52" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>229</v>
+        <v>76</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>230</v>
+        <v>76</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>76</v>
@@ -7829,10 +7761,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7855,17 +7787,15 @@
         <v>76</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>76</v>
@@ -7914,7 +7844,7 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>88</v>
@@ -7923,11 +7853,11 @@
         <v>88</v>
       </c>
       <c r="AI53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ53" t="s" s="2">
-        <v>246</v>
-      </c>
       <c r="AK53" t="s" s="2">
         <v>76</v>
       </c>
@@ -7935,7 +7865,7 @@
         <v>76</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>267</v>
+        <v>76</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>76</v>
@@ -7943,10 +7873,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7969,23 +7899,23 @@
         <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q54" t="s" s="2">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="R54" t="s" s="2">
         <v>76</v>
@@ -8006,13 +7936,13 @@
         <v>76</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>76</v>
@@ -8030,7 +7960,7 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -8039,19 +7969,19 @@
         <v>78</v>
       </c>
       <c r="AI54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ54" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>229</v>
+        <v>76</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>230</v>
+        <v>76</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>76</v>
@@ -8059,10 +7989,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8085,16 +8015,16 @@
         <v>89</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8120,14 +8050,14 @@
         <v>76</v>
       </c>
       <c r="X55" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="Z55" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="Y55" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>150</v>
-      </c>
       <c r="AA55" t="s" s="2">
         <v>76</v>
       </c>
@@ -8144,7 +8074,7 @@
         <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
@@ -8153,19 +8083,19 @@
         <v>78</v>
       </c>
       <c r="AI55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ55" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>153</v>
+        <v>76</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>76</v>
@@ -8173,10 +8103,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8199,16 +8129,16 @@
         <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8234,13 +8164,13 @@
         <v>76</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>76</v>
@@ -8258,7 +8188,7 @@
         <v>76</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -8267,19 +8197,19 @@
         <v>78</v>
       </c>
       <c r="AI56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ56" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>153</v>
+        <v>76</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>76</v>
@@ -8287,10 +8217,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8313,16 +8243,16 @@
         <v>89</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8348,13 +8278,13 @@
         <v>76</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>76</v>
@@ -8372,7 +8302,7 @@
         <v>76</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -8381,19 +8311,19 @@
         <v>78</v>
       </c>
       <c r="AI57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ57" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>153</v>
+        <v>76</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>76</v>
@@ -8401,10 +8331,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8427,16 +8357,16 @@
         <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8462,13 +8392,13 @@
         <v>76</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>76</v>
@@ -8486,7 +8416,7 @@
         <v>76</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
@@ -8495,19 +8425,19 @@
         <v>78</v>
       </c>
       <c r="AI58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ58" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>229</v>
+        <v>76</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>230</v>
+        <v>76</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>76</v>
@@ -8515,10 +8445,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8541,16 +8471,16 @@
         <v>89</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8600,7 +8530,7 @@
         <v>76</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -8609,19 +8539,19 @@
         <v>88</v>
       </c>
       <c r="AI59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ59" t="s" s="2">
-        <v>342</v>
-      </c>
       <c r="AK59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>343</v>
+        <v>76</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>344</v>
+        <v>76</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>76</v>
@@ -8629,10 +8559,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8655,13 +8585,13 @@
         <v>89</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8669,7 +8599,7 @@
         <v>76</v>
       </c>
       <c r="Q60" t="s" s="2">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="R60" t="s" s="2">
         <v>76</v>
@@ -8714,7 +8644,7 @@
         <v>76</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
@@ -8723,11 +8653,11 @@
         <v>78</v>
       </c>
       <c r="AI60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ60" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK60" t="s" s="2">
         <v>76</v>
       </c>
@@ -8735,7 +8665,7 @@
         <v>76</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>76</v>
@@ -8743,10 +8673,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8769,13 +8699,13 @@
         <v>76</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8826,7 +8756,7 @@
         <v>76</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
@@ -8847,7 +8777,7 @@
         <v>76</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>76</v>
@@ -8855,14 +8785,14 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -8881,16 +8811,16 @@
         <v>76</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -8928,19 +8858,19 @@
         <v>76</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="AC62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF62" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
@@ -8949,10 +8879,10 @@
         <v>78</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>76</v>
@@ -8961,7 +8891,7 @@
         <v>76</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>76</v>
@@ -8969,14 +8899,14 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -8995,19 +8925,19 @@
         <v>89</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>76</v>
@@ -9056,7 +8986,7 @@
         <v>76</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
@@ -9065,10 +8995,10 @@
         <v>78</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>76</v>
@@ -9077,7 +9007,7 @@
         <v>76</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>102</v>
+        <v>187</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>76</v>
@@ -9085,10 +9015,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9111,17 +9041,15 @@
         <v>89</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>334</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>76</v>
@@ -9131,7 +9059,7 @@
         <v>76</v>
       </c>
       <c r="S64" t="s" s="2">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="T64" t="s" s="2">
         <v>76</v>
@@ -9146,13 +9074,13 @@
         <v>76</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>76</v>
@@ -9170,7 +9098,7 @@
         <v>76</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>88</v>
@@ -9179,11 +9107,11 @@
         <v>88</v>
       </c>
       <c r="AI64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ64" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK64" t="s" s="2">
         <v>76</v>
       </c>
@@ -9191,7 +9119,7 @@
         <v>76</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>76</v>
@@ -9199,10 +9127,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9225,17 +9153,15 @@
         <v>89</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>76</v>
@@ -9284,7 +9210,7 @@
         <v>76</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>88</v>
@@ -9293,11 +9219,11 @@
         <v>88</v>
       </c>
       <c r="AI65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ65" t="s" s="2">
-        <v>246</v>
-      </c>
       <c r="AK65" t="s" s="2">
         <v>76</v>
       </c>
@@ -9305,7 +9231,7 @@
         <v>76</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>267</v>
+        <v>76</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>76</v>
@@ -9313,10 +9239,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9339,13 +9265,13 @@
         <v>76</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9396,7 +9322,7 @@
         <v>76</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
@@ -9417,7 +9343,7 @@
         <v>76</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>76</v>
@@ -9425,14 +9351,14 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9451,16 +9377,16 @@
         <v>76</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9498,19 +9424,19 @@
         <v>76</v>
       </c>
       <c r="AB67" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE67" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AC67" t="s" s="2">
+      <c r="AF67" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
@@ -9519,10 +9445,10 @@
         <v>78</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>76</v>
@@ -9531,7 +9457,7 @@
         <v>76</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>76</v>
@@ -9539,10 +9465,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9565,16 +9491,16 @@
         <v>89</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9624,7 +9550,7 @@
         <v>76</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
@@ -9633,10 +9559,10 @@
         <v>88</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>76</v>
@@ -9645,7 +9571,7 @@
         <v>76</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>102</v>
+        <v>187</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>76</v>
@@ -9653,10 +9579,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9679,16 +9605,16 @@
         <v>89</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -9714,13 +9640,13 @@
         <v>76</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>76</v>
@@ -9738,7 +9664,7 @@
         <v>76</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
@@ -9747,11 +9673,11 @@
         <v>88</v>
       </c>
       <c r="AI69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ69" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK69" t="s" s="2">
         <v>76</v>
       </c>
@@ -9759,7 +9685,7 @@
         <v>76</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>102</v>
+        <v>187</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>76</v>
@@ -9767,10 +9693,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9793,16 +9719,16 @@
         <v>89</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -9852,7 +9778,7 @@
         <v>76</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
@@ -9861,19 +9787,19 @@
         <v>88</v>
       </c>
       <c r="AI70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ70" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>206</v>
+        <v>76</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>76</v>
@@ -9881,10 +9807,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9907,13 +9833,13 @@
         <v>76</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9964,7 +9890,7 @@
         <v>76</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>77</v>
@@ -9985,7 +9911,7 @@
         <v>76</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>76</v>
@@ -9993,14 +9919,14 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -10019,16 +9945,16 @@
         <v>76</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10066,19 +9992,19 @@
         <v>76</v>
       </c>
       <c r="AB72" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE72" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AC72" t="s" s="2">
+      <c r="AF72" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>77</v>
@@ -10087,10 +10013,10 @@
         <v>78</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>76</v>
@@ -10099,7 +10025,7 @@
         <v>76</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>76</v>
@@ -10107,10 +10033,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10133,19 +10059,19 @@
         <v>89</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>436</v>
+        <v>420</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>76</v>
@@ -10155,7 +10081,7 @@
         <v>76</v>
       </c>
       <c r="S73" t="s" s="2">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="T73" t="s" s="2">
         <v>76</v>
@@ -10170,13 +10096,13 @@
         <v>76</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>76</v>
@@ -10194,7 +10120,7 @@
         <v>76</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>77</v>
@@ -10203,19 +10129,19 @@
         <v>88</v>
       </c>
       <c r="AI73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ73" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK73" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>102</v>
+        <v>187</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>76</v>
@@ -10223,10 +10149,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10249,19 +10175,19 @@
         <v>89</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>76</v>
@@ -10286,13 +10212,13 @@
         <v>76</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>76</v>
@@ -10310,7 +10236,7 @@
         <v>76</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>77</v>
@@ -10319,19 +10245,19 @@
         <v>88</v>
       </c>
       <c r="AI74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ74" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK74" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>76</v>
@@ -10339,10 +10265,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10365,19 +10291,19 @@
         <v>89</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>76</v>
@@ -10390,7 +10316,7 @@
         <v>76</v>
       </c>
       <c r="T75" t="s" s="2">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="U75" t="s" s="2">
         <v>76</v>
@@ -10426,7 +10352,7 @@
         <v>76</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>77</v>
@@ -10435,19 +10361,19 @@
         <v>88</v>
       </c>
       <c r="AI75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ75" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK75" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>76</v>
@@ -10455,10 +10381,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10481,16 +10407,16 @@
         <v>89</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10504,7 +10430,7 @@
         <v>76</v>
       </c>
       <c r="T76" t="s" s="2">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="U76" t="s" s="2">
         <v>76</v>
@@ -10540,7 +10466,7 @@
         <v>76</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>77</v>
@@ -10549,19 +10475,19 @@
         <v>88</v>
       </c>
       <c r="AI76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ76" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>76</v>
@@ -10569,10 +10495,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10595,17 +10521,15 @@
         <v>89</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>76</v>
@@ -10654,7 +10578,7 @@
         <v>76</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>77</v>
@@ -10663,19 +10587,19 @@
         <v>88</v>
       </c>
       <c r="AI77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ77" t="s" s="2">
-        <v>342</v>
-      </c>
       <c r="AK77" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>76</v>
@@ -10683,10 +10607,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>476</v>
+        <v>460</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>476</v>
+        <v>460</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10709,16 +10633,16 @@
         <v>89</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -10768,7 +10692,7 @@
         <v>76</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>77</v>
@@ -10777,19 +10701,19 @@
         <v>88</v>
       </c>
       <c r="AI78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ78" t="s" s="2">
-        <v>246</v>
-      </c>
       <c r="AK78" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>76</v>
@@ -10797,10 +10721,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10823,16 +10747,16 @@
         <v>89</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -10882,7 +10806,7 @@
         <v>76</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>77</v>
@@ -10891,11 +10815,11 @@
         <v>88</v>
       </c>
       <c r="AI79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ79" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK79" t="s" s="2">
         <v>76</v>
       </c>
@@ -10903,7 +10827,7 @@
         <v>76</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>102</v>
+        <v>187</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>76</v>
@@ -10911,10 +10835,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10940,10 +10864,10 @@
         <v>79</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -10994,7 +10918,7 @@
         <v>76</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>77</v>
@@ -11006,7 +10930,7 @@
         <v>76</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>76</v>

--- a/ig/StructureDefinition-esms-consent.xlsx
+++ b/ig/StructureDefinition-esms-consent.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.3</t>
+    <t>4.0.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-30T16:13:12+00:00</t>
+    <t>2025-10-14T08:50:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1806,17 +1806,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.02734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="50.02734375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="42.890625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="42.890625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="94.234375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="80.7890625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1825,26 +1825,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="55.12890625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="125.95703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="52.5703125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="47.265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="107.984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="45.0703125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="46.4453125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="102.6171875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="39.8203125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="87.9765625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/StructureDefinition-esms-consent.xlsx
+++ b/ig/StructureDefinition-esms-consent.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.5</t>
+    <t>4.0.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-14T08:50:08+00:00</t>
+    <t>2025-12-15T14:49:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
